--- a/base_projetos.xlsx
+++ b/base_projetos.xlsx
@@ -1,49 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7755" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="dbo.Cliente" state="visible" r:id="rId4"/>
-    <sheet sheetId="4" name="dbo.Usuario" state="visible" r:id="rId5"/>
-    <sheet sheetId="5" name="dbo.Servidor" state="visible" r:id="rId6"/>
-    <sheet sheetId="6" name="dbo.ProjetoBI" state="visible" r:id="rId7"/>
-    <sheet sheetId="7" name="dbo.FatoMelhoriaBI" state="visible" r:id="rId8"/>
-    <sheet sheetId="8" name="dbo.FatoPendêcia" state="visible" r:id="rId9"/>
-    <sheet sheetId="9" name="dbo.FatoAtendimento" state="visible" r:id="rId10"/>
+    <sheet name="dbo.Cliente" sheetId="1" r:id="rId1"/>
+    <sheet name="dbo.Usuario" sheetId="4" r:id="rId2"/>
+    <sheet name="dbo.Servidor" sheetId="5" r:id="rId3"/>
+    <sheet name="dbo.ProjetoBI" sheetId="6" r:id="rId4"/>
+    <sheet name="dbo.FatoMelhoriaBI" sheetId="7" r:id="rId5"/>
+    <sheet name="dbo.FatoPendêcia" sheetId="8" r:id="rId6"/>
+    <sheet name="dbo.FatoAtendimento" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t xml:space="preserve">id_Cliente </t>
   </si>
   <si>
-    <t xml:space="preserve">str_Cliente </t>
+    <t>str_cliente</t>
   </si>
   <si>
     <t>000 - ATENDIMENTOS OW</t>
   </si>
   <si>
+    <t>001 - singular medicamentos</t>
+  </si>
+  <si>
     <t xml:space="preserve">id_Usuario </t>
   </si>
   <si>
-    <t xml:space="preserve">str_Usuario </t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Email </t>
-  </si>
-  <si>
-    <t xml:space="preserve">bit_StatusAtivo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_DescrInativo </t>
+    <t>str_usuario</t>
+  </si>
+  <si>
+    <t>str_email</t>
+  </si>
+  <si>
+    <t>bit_statusAtivo</t>
+  </si>
+  <si>
+    <t>str_descrInativo</t>
+  </si>
+  <si>
+    <t>power bi cloud</t>
+  </si>
+  <si>
+    <t>powerbi.cloud@ouroweb.com.br</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>thais</t>
+  </si>
+  <si>
+    <t>thais@singular.com.br</t>
   </si>
   <si>
     <t xml:space="preserve">id_Servidor </t>
@@ -129,18 +148,21 @@
   <si>
     <t xml:space="preserve">dta_DataFimAtendimento </t>
   </si>
+  <si>
+    <t>id_Cliente</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,16 +185,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -186,11 +218,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="Tabela1" displayName="Tabela1" ref="A1:B1048576" totalsRowShown="1" headerRowCount="0">
-  <autoFilter ref="A1:B1048576">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:B1048576" headerRowCount="0">
   <tableColumns count="2">
     <tableColumn id="1" name="id_Cliente "/>
     <tableColumn id="2" name="str_Cliente "/>
@@ -200,17 +228,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" name="Tabela2" displayName="Tabela2" ref="A1:E1048576" totalsRowShown="1" headerRowCount="0">
-  <autoFilter ref="A1:E1048576">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:F1048576" headerRowCount="0">
+  <tableColumns count="7">
     <tableColumn id="1" name="id_Usuario "/>
+    <tableColumn id="8" name="Colunas2" dataDxfId="0"/>
     <tableColumn id="2" name="str_Usuario "/>
+    <tableColumn id="7" name="Colunas1" dataDxfId="1"/>
     <tableColumn id="3" name="str_Email "/>
     <tableColumn id="4" name="bit_StatusAtivo "/>
     <tableColumn id="5" name="str_DescrInativo "/>
@@ -220,13 +243,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" name="Tabela3" displayName="Tabela3" ref="A1:D1048576" totalsRowShown="1" headerRowCount="0">
-  <autoFilter ref="A1:D1048576">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:D1048576" headerRowCount="0">
   <tableColumns count="4">
     <tableColumn id="1" name="id_Servidor "/>
     <tableColumn id="2" name="str_TipoAcessoServidor "/>
@@ -238,24 +255,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" name="Tabela4" displayName="Tabela4" ref="A1:O1048576" totalsRowShown="1" headerRowCount="0">
-  <autoFilter ref="A1:O1048576">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-    <filterColumn colId="7" hiddenButton="1"/>
-    <filterColumn colId="8" hiddenButton="1"/>
-    <filterColumn colId="9" hiddenButton="1"/>
-    <filterColumn colId="10" hiddenButton="1"/>
-    <filterColumn colId="11" hiddenButton="1"/>
-    <filterColumn colId="12" hiddenButton="1"/>
-    <filterColumn colId="13" hiddenButton="1"/>
-    <filterColumn colId="14" hiddenButton="1"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:O1048576" headerRowCount="0">
   <tableColumns count="15">
     <tableColumn id="1" name="id_ProjetoBI "/>
     <tableColumn id="2" name="id_Cliente "/>
@@ -278,14 +278,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" name="Tabela5" displayName="Tabela5" ref="A1:E1048576" totalsRowShown="1" headerRowCount="0">
-  <autoFilter ref="A1:E1048576">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela5" displayName="Tabela5" ref="A1:E1048576" headerRowCount="0">
   <tableColumns count="5">
     <tableColumn id="1" name="id_Melhoria "/>
     <tableColumn id="2" name="id_ProjetoBI "/>
@@ -298,14 +291,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" name="Tabela6" displayName="Tabela6" ref="A1:E1048576" totalsRowShown="1" headerRowCount="0">
-  <autoFilter ref="A1:E1048576">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela6" displayName="Tabela6" ref="A1:E1048576" headerRowCount="0">
   <tableColumns count="5">
     <tableColumn id="1" name="id_Pendencia "/>
     <tableColumn id="2" name="id_ProjetoBI "/>
@@ -318,14 +304,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" name="Tabela7" displayName="Tabela7" ref="A1:E1048576" totalsRowShown="1" headerRowCount="0">
-  <autoFilter ref="A1:E1048576">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="A1:E1048576" headerRowCount="0">
   <tableColumns count="5">
     <tableColumn id="1" name="id_Atendimento "/>
     <tableColumn id="2" name="id_ProjetoBI "/>
@@ -624,15 +603,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="24.42578125"/>
+  <sheetFormatPr defaultColWidth="24.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="24.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="24.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -643,40 +623,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="23.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="1" max="6" width="23.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
@@ -687,64 +672,92 @@
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" style="1" customWidth="1"/>
     <col min="5" max="9" width="19.42578125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="24"/>
+  <sheetFormatPr defaultColWidth="24" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
@@ -761,187 +774,191 @@
     <col min="13" max="13" width="28.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="30.140625" style="1" customWidth="1"/>
     <col min="15" max="15" width="21.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="24" style="1" customWidth="1"/>
+    <col min="16" max="16" width="24" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="24" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="13.140625"/>
+  <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.28515625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="13.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="13.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.42578125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
